--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80415.33065292895</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80415.33065292895</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36311.36332446084</v>
+        <v>4619269.209319703</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36311.36332446084</v>
+        <v>4619269.209319703</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494885793.956575</v>
+        <v>55913579.59325217</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11876.543019973</v>
+        <v>1218571.24411428</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23007.59937105457</v>
+        <v>2325643.622371539</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34137.07188375228</v>
+        <v>3432474.465275263</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45978.63402279841</v>
+        <v>4484967.010137704</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57161.59747949612</v>
+        <v>5610864.795793429</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68344.56093619384</v>
+        <v>6736762.581449155</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80112.82480501563</v>
+        <v>7983202.438766532</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91583.52252830843</v>
+        <v>9184254.369506318</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103441.0953199824</v>
+        <v>10257794.81292731</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114687.7760116941</v>
+        <v>11450778.76063581</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125729.5454562748</v>
+        <v>12673387.40571528</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136511.2537550894</v>
+        <v>13884789.33374978</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147362.6509427929</v>
+        <v>15106818.81733984</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159540.2416093534</v>
+        <v>16140652.75705562</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173981.5236841353</v>
+        <v>16715385.06962632</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,10 +27153,10 @@
         <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>188</v>
